--- a/data/classifier_test/broad_assets_ht_trendmode_lag6_test.xlsx
+++ b/data/classifier_test/broad_assets_ht_trendmode_lag6_test.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L219"/>
+  <dimension ref="A1:L229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,7 +503,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44018</v>
+        <v>43948</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -515,7 +515,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44025</v>
+        <v>43955</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -553,7 +553,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -571,7 +571,7 @@
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
@@ -579,7 +579,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44032</v>
+        <v>43962</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -606,7 +606,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44039</v>
+        <v>43969</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -629,7 +629,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -655,7 +655,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44046</v>
+        <v>43973</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -693,19 +693,19 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44053</v>
+        <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
@@ -717,7 +717,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -731,7 +731,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44060</v>
+        <v>43990</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -743,13 +743,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -769,7 +769,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44067</v>
+        <v>43997</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -778,16 +778,16 @@
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44074</v>
+        <v>44004</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
@@ -819,7 +819,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -834,18 +834,18 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44078</v>
+        <v>44011</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -857,22 +857,22 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
@@ -883,7 +883,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44088</v>
+        <v>44018</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -895,7 +895,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>1</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44095</v>
+        <v>44025</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
@@ -933,7 +933,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
@@ -942,7 +942,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
@@ -951,7 +951,7 @@
         <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>1</v>
@@ -959,7 +959,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44102</v>
+        <v>44032</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
@@ -971,7 +971,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44109</v>
+        <v>44039</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
@@ -1015,10 +1015,10 @@
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
@@ -1035,7 +1035,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44116</v>
+        <v>44046</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
@@ -1044,7 +1044,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1065,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
         <v>1</v>
@@ -1073,22 +1073,22 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44123</v>
+        <v>44053</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1097,21 +1097,21 @@
         <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>1</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44130</v>
+        <v>44060</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
@@ -1120,19 +1120,19 @@
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" t="n">
         <v>1</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44137</v>
+        <v>44067</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
@@ -1158,7 +1158,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -1173,21 +1173,21 @@
         <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44144</v>
+        <v>44074</v>
       </c>
       <c r="B20" t="n">
         <v>1</v>
@@ -1196,7 +1196,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
@@ -1205,7 +1205,7 @@
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -1225,7 +1225,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44151</v>
+        <v>44078</v>
       </c>
       <c r="B21" t="n">
         <v>1</v>
@@ -1243,19 +1243,19 @@
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" t="n">
         <v>1</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44158</v>
+        <v>44088</v>
       </c>
       <c r="B22" t="n">
         <v>1</v>
@@ -1275,7 +1275,7 @@
         <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
         <v>1</v>
@@ -1290,7 +1290,7 @@
         <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
         <v>1</v>
@@ -1301,7 +1301,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44165</v>
+        <v>44095</v>
       </c>
       <c r="B23" t="n">
         <v>1</v>
@@ -1322,7 +1322,7 @@
         <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>1</v>
@@ -1331,7 +1331,7 @@
         <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" t="n">
         <v>1</v>
@@ -1339,7 +1339,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44172</v>
+        <v>44102</v>
       </c>
       <c r="B24" t="n">
         <v>1</v>
@@ -1351,7 +1351,7 @@
         <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>1</v>
@@ -1377,7 +1377,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44179</v>
+        <v>44109</v>
       </c>
       <c r="B25" t="n">
         <v>1</v>
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -1395,16 +1395,16 @@
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
         <v>1</v>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44186</v>
+        <v>44116</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
@@ -1424,16 +1424,16 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
@@ -1448,12 +1448,12 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44193</v>
+        <v>44123</v>
       </c>
       <c r="B27" t="n">
         <v>1</v>
@@ -1465,10 +1465,10 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1480,10 +1480,10 @@
         <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" t="n">
         <v>1</v>
@@ -1491,7 +1491,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44200</v>
+        <v>44130</v>
       </c>
       <c r="B28" t="n">
         <v>1</v>
@@ -1509,19 +1509,19 @@
         <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>1</v>
@@ -1529,7 +1529,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44207</v>
+        <v>44137</v>
       </c>
       <c r="B29" t="n">
         <v>1</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
         <v>1</v>
@@ -1553,21 +1553,21 @@
         <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44211</v>
+        <v>44144</v>
       </c>
       <c r="B30" t="n">
         <v>1</v>
@@ -1576,10 +1576,10 @@
         <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
         <v>1</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44221</v>
+        <v>44151</v>
       </c>
       <c r="B31" t="n">
         <v>1</v>
@@ -1614,10 +1614,10 @@
         <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
         <v>1</v>
@@ -1626,13 +1626,13 @@
         <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -1643,7 +1643,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44228</v>
+        <v>44158</v>
       </c>
       <c r="B32" t="n">
         <v>1</v>
@@ -1652,7 +1652,7 @@
         <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -1661,7 +1661,7 @@
         <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
         <v>1</v>
@@ -1670,7 +1670,7 @@
         <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>1</v>
@@ -1681,7 +1681,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44235</v>
+        <v>44165</v>
       </c>
       <c r="B33" t="n">
         <v>1</v>
@@ -1690,7 +1690,7 @@
         <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
         <v>1</v>
@@ -1699,7 +1699,7 @@
         <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
         <v>1</v>
@@ -1711,7 +1711,7 @@
         <v>1</v>
       </c>
       <c r="K33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>1</v>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44239</v>
+        <v>44172</v>
       </c>
       <c r="B34" t="n">
         <v>1</v>
@@ -1728,7 +1728,7 @@
         <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="n">
         <v>1</v>
@@ -1737,7 +1737,7 @@
         <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44249</v>
+        <v>44179</v>
       </c>
       <c r="B35" t="n">
         <v>1</v>
@@ -1766,7 +1766,7 @@
         <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -1784,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>1</v>
@@ -1795,7 +1795,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44256</v>
+        <v>44186</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -1804,16 +1804,16 @@
         <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
         <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
         <v>1</v>
@@ -1822,18 +1822,18 @@
         <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44263</v>
+        <v>44193</v>
       </c>
       <c r="B37" t="n">
         <v>1</v>
@@ -1842,10 +1842,10 @@
         <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
         <v>1</v>
@@ -1863,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>1</v>
@@ -1871,16 +1871,16 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44270</v>
+        <v>44200</v>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -1898,10 +1898,10 @@
         <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" t="n">
         <v>1</v>
@@ -1909,7 +1909,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44277</v>
+        <v>44207</v>
       </c>
       <c r="B39" t="n">
         <v>1</v>
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -1930,13 +1930,13 @@
         <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" t="n">
         <v>1</v>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44284</v>
+        <v>44211</v>
       </c>
       <c r="B40" t="n">
         <v>1</v>
@@ -1974,10 +1974,10 @@
         <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40" t="n">
         <v>1</v>
@@ -1985,19 +1985,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44291</v>
+        <v>44221</v>
       </c>
       <c r="B41" t="n">
         <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>1</v>
@@ -2012,10 +2012,10 @@
         <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>1</v>
@@ -2023,7 +2023,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44298</v>
+        <v>44228</v>
       </c>
       <c r="B42" t="n">
         <v>1</v>
@@ -2032,19 +2032,19 @@
         <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>1</v>
@@ -2061,7 +2061,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44305</v>
+        <v>44235</v>
       </c>
       <c r="B43" t="n">
         <v>1</v>
@@ -2070,7 +2070,7 @@
         <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>1</v>
@@ -2079,10 +2079,10 @@
         <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>1</v>
@@ -2099,7 +2099,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44312</v>
+        <v>44239</v>
       </c>
       <c r="B44" t="n">
         <v>1</v>
@@ -2108,7 +2108,7 @@
         <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>1</v>
@@ -2117,7 +2117,7 @@
         <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>1</v>
@@ -2137,7 +2137,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44319</v>
+        <v>44249</v>
       </c>
       <c r="B45" t="n">
         <v>1</v>
@@ -2149,10 +2149,10 @@
         <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2167,7 +2167,7 @@
         <v>1</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" t="n">
         <v>1</v>
@@ -2175,37 +2175,37 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44326</v>
+        <v>44256</v>
       </c>
       <c r="B46" t="n">
         <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
         <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" t="n">
         <v>1</v>
@@ -2213,7 +2213,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44333</v>
+        <v>44263</v>
       </c>
       <c r="B47" t="n">
         <v>1</v>
@@ -2225,10 +2225,10 @@
         <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2237,13 +2237,13 @@
         <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47" t="n">
         <v>1</v>
@@ -2251,22 +2251,22 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44340</v>
+        <v>44270</v>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" t="n">
         <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2275,7 +2275,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
         <v>0</v>
@@ -2284,12 +2284,12 @@
         <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44344</v>
+        <v>44277</v>
       </c>
       <c r="B49" t="n">
         <v>1</v>
@@ -2310,13 +2310,13 @@
         <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
         <v>1</v>
@@ -2327,7 +2327,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44354</v>
+        <v>44284</v>
       </c>
       <c r="B50" t="n">
         <v>1</v>
@@ -2354,10 +2354,10 @@
         <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
         <v>1</v>
@@ -2365,13 +2365,13 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44361</v>
+        <v>44291</v>
       </c>
       <c r="B51" t="n">
         <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
         <v>1</v>
@@ -2392,7 +2392,7 @@
         <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" t="n">
         <v>1</v>
@@ -2403,7 +2403,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44368</v>
+        <v>44298</v>
       </c>
       <c r="B52" t="n">
         <v>1</v>
@@ -2412,22 +2412,22 @@
         <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
         <v>1</v>
@@ -2441,10 +2441,10 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44375</v>
+        <v>44305</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53" t="n">
         <v>1</v>
@@ -2453,7 +2453,7 @@
         <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
         <v>1</v>
@@ -2462,7 +2462,7 @@
         <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>1</v>
@@ -2479,10 +2479,10 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44379</v>
+        <v>44312</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" t="n">
         <v>1</v>
@@ -2491,7 +2491,7 @@
         <v>1</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" t="n">
         <v>1</v>
@@ -2517,22 +2517,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44389</v>
+        <v>44319</v>
       </c>
       <c r="B55" t="n">
         <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55" t="n">
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2547,7 +2547,7 @@
         <v>1</v>
       </c>
       <c r="K55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
         <v>1</v>
@@ -2555,13 +2555,13 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44396</v>
+        <v>44326</v>
       </c>
       <c r="B56" t="n">
         <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
         <v>1</v>
@@ -2576,7 +2576,7 @@
         <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>1</v>
@@ -2585,7 +2585,7 @@
         <v>1</v>
       </c>
       <c r="K56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L56" t="n">
         <v>1</v>
@@ -2593,7 +2593,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44403</v>
+        <v>44333</v>
       </c>
       <c r="B57" t="n">
         <v>1</v>
@@ -2608,7 +2608,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2617,13 +2617,13 @@
         <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
         <v>1</v>
@@ -2631,7 +2631,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44410</v>
+        <v>44340</v>
       </c>
       <c r="B58" t="n">
         <v>1</v>
@@ -2655,13 +2655,13 @@
         <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
@@ -2669,7 +2669,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44417</v>
+        <v>44344</v>
       </c>
       <c r="B59" t="n">
         <v>1</v>
@@ -2702,12 +2702,12 @@
         <v>1</v>
       </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44424</v>
+        <v>44354</v>
       </c>
       <c r="B60" t="n">
         <v>1</v>
@@ -2731,7 +2731,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
         <v>1</v>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44431</v>
+        <v>44361</v>
       </c>
       <c r="B61" t="n">
         <v>1</v>
@@ -2757,7 +2757,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
         <v>1</v>
@@ -2766,7 +2766,7 @@
         <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>1</v>
@@ -2775,15 +2775,15 @@
         <v>1</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44438</v>
+        <v>44368</v>
       </c>
       <c r="B62" t="n">
         <v>1</v>
@@ -2792,10 +2792,10 @@
         <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
         <v>1</v>
@@ -2807,13 +2807,13 @@
         <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
         <v>1</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62" t="n">
         <v>1</v>
@@ -2821,10 +2821,10 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44442</v>
+        <v>44375</v>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" t="n">
         <v>1</v>
@@ -2833,7 +2833,7 @@
         <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63" t="n">
         <v>1</v>
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>1</v>
@@ -2851,18 +2851,18 @@
         <v>1</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44452</v>
+        <v>44379</v>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64" t="n">
         <v>1</v>
@@ -2871,7 +2871,7 @@
         <v>1</v>
       </c>
       <c r="E64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
         <v>1</v>
@@ -2886,7 +2886,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" t="n">
         <v>1</v>
@@ -2897,13 +2897,13 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44459</v>
+        <v>44389</v>
       </c>
       <c r="B65" t="n">
         <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65" t="n">
         <v>1</v>
@@ -2924,7 +2924,7 @@
         <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65" t="n">
         <v>1</v>
@@ -2935,7 +2935,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44466</v>
+        <v>44396</v>
       </c>
       <c r="B66" t="n">
         <v>1</v>
@@ -2944,13 +2944,13 @@
         <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2962,18 +2962,18 @@
         <v>1</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66" t="n">
         <v>1</v>
       </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44473</v>
+        <v>44403</v>
       </c>
       <c r="B67" t="n">
         <v>1</v>
@@ -2985,7 +2985,7 @@
         <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
         <v>1</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L67" t="n">
         <v>1</v>
@@ -3011,7 +3011,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44480</v>
+        <v>44410</v>
       </c>
       <c r="B68" t="n">
         <v>1</v>
@@ -3020,13 +3020,13 @@
         <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3035,7 +3035,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
         <v>1</v>
@@ -3044,12 +3044,12 @@
         <v>1</v>
       </c>
       <c r="L68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44487</v>
+        <v>44417</v>
       </c>
       <c r="B69" t="n">
         <v>1</v>
@@ -3058,7 +3058,7 @@
         <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
@@ -3076,21 +3076,21 @@
         <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69" t="n">
         <v>1</v>
       </c>
       <c r="L69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44494</v>
+        <v>44424</v>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70" t="n">
         <v>1</v>
@@ -3105,19 +3105,19 @@
         <v>1</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L70" t="n">
         <v>1</v>
@@ -3125,7 +3125,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44501</v>
+        <v>44431</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -3134,7 +3134,7 @@
         <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
@@ -3146,27 +3146,27 @@
         <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44508</v>
+        <v>44438</v>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72" t="n">
         <v>1</v>
@@ -3190,10 +3190,10 @@
         <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L72" t="n">
         <v>1</v>
@@ -3201,7 +3201,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44515</v>
+        <v>44442</v>
       </c>
       <c r="B73" t="n">
         <v>1</v>
@@ -3216,13 +3216,13 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>1</v>
@@ -3231,15 +3231,15 @@
         <v>1</v>
       </c>
       <c r="K73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44522</v>
+        <v>44452</v>
       </c>
       <c r="B74" t="n">
         <v>1</v>
@@ -3254,7 +3254,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3266,7 +3266,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74" t="n">
         <v>1</v>
@@ -3277,19 +3277,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44529</v>
+        <v>44459</v>
       </c>
       <c r="B75" t="n">
         <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75" t="n">
         <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75" t="n">
         <v>1</v>
@@ -3304,10 +3304,10 @@
         <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L75" t="n">
         <v>1</v>
@@ -3315,7 +3315,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44536</v>
+        <v>44466</v>
       </c>
       <c r="B76" t="n">
         <v>1</v>
@@ -3324,13 +3324,13 @@
         <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3348,12 +3348,12 @@
         <v>1</v>
       </c>
       <c r="L76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44543</v>
+        <v>44473</v>
       </c>
       <c r="B77" t="n">
         <v>1</v>
@@ -3365,7 +3365,7 @@
         <v>1</v>
       </c>
       <c r="E77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77" t="n">
         <v>1</v>
@@ -3377,13 +3377,13 @@
         <v>1</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
         <v>0</v>
       </c>
       <c r="K77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L77" t="n">
         <v>1</v>
@@ -3391,7 +3391,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44550</v>
+        <v>44480</v>
       </c>
       <c r="B78" t="n">
         <v>1</v>
@@ -3400,7 +3400,7 @@
         <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E78" t="n">
         <v>0</v>
@@ -3418,18 +3418,18 @@
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K78" t="n">
         <v>1</v>
       </c>
       <c r="L78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44557</v>
+        <v>44487</v>
       </c>
       <c r="B79" t="n">
         <v>1</v>
@@ -3438,7 +3438,7 @@
         <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
@@ -3453,30 +3453,30 @@
         <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K79" t="n">
         <v>1</v>
       </c>
       <c r="L79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44564</v>
+        <v>44494</v>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C80" t="n">
         <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
@@ -3485,16 +3485,16 @@
         <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K80" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44571</v>
+        <v>44501</v>
       </c>
       <c r="B81" t="n">
         <v>1</v>
@@ -3523,7 +3523,7 @@
         <v>1</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
         <v>1</v>
@@ -3532,7 +3532,7 @@
         <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K81" t="n">
         <v>1</v>
@@ -3543,10 +3543,10 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44575</v>
+        <v>44508</v>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82" t="n">
         <v>1</v>
@@ -3555,7 +3555,7 @@
         <v>1</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82" t="n">
         <v>1</v>
@@ -3570,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K82" t="n">
         <v>1</v>
@@ -3581,22 +3581,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44585</v>
+        <v>44515</v>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3619,22 +3619,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44592</v>
+        <v>44522</v>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C84" t="n">
         <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3649,27 +3649,27 @@
         <v>1</v>
       </c>
       <c r="K84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44599</v>
+        <v>44529</v>
       </c>
       <c r="B85" t="n">
         <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D85" t="n">
         <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85" t="n">
         <v>1</v>
@@ -3681,13 +3681,13 @@
         <v>1</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
         <v>1</v>
       </c>
       <c r="K85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L85" t="n">
         <v>1</v>
@@ -3695,7 +3695,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>44606</v>
+        <v>44536</v>
       </c>
       <c r="B86" t="n">
         <v>1</v>
@@ -3707,7 +3707,7 @@
         <v>1</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86" t="n">
         <v>1</v>
@@ -3733,7 +3733,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>44610</v>
+        <v>44543</v>
       </c>
       <c r="B87" t="n">
         <v>1</v>
@@ -3763,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="K87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L87" t="n">
         <v>1</v>
@@ -3771,7 +3771,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>44620</v>
+        <v>44550</v>
       </c>
       <c r="B88" t="n">
         <v>1</v>
@@ -3783,7 +3783,7 @@
         <v>1</v>
       </c>
       <c r="E88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88" t="n">
         <v>1</v>
@@ -3795,21 +3795,21 @@
         <v>1</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K88" t="n">
         <v>1</v>
       </c>
       <c r="L88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>44627</v>
+        <v>44557</v>
       </c>
       <c r="B89" t="n">
         <v>1</v>
@@ -3821,7 +3821,7 @@
         <v>1</v>
       </c>
       <c r="E89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89" t="n">
         <v>1</v>
@@ -3833,21 +3833,21 @@
         <v>1</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K89" t="n">
         <v>1</v>
       </c>
       <c r="L89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>44634</v>
+        <v>44564</v>
       </c>
       <c r="B90" t="n">
         <v>1</v>
@@ -3856,10 +3856,10 @@
         <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
         <v>1</v>
@@ -3877,7 +3877,7 @@
         <v>1</v>
       </c>
       <c r="K90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L90" t="n">
         <v>1</v>
@@ -3885,7 +3885,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>44641</v>
+        <v>44571</v>
       </c>
       <c r="B91" t="n">
         <v>1</v>
@@ -3894,16 +3894,16 @@
         <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91" t="n">
         <v>1</v>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91" t="n">
         <v>1</v>
@@ -3912,10 +3912,10 @@
         <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L91" t="n">
         <v>1</v>
@@ -3923,7 +3923,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>44648</v>
+        <v>44575</v>
       </c>
       <c r="B92" t="n">
         <v>1</v>
@@ -3935,7 +3935,7 @@
         <v>1</v>
       </c>
       <c r="E92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92" t="n">
         <v>1</v>
@@ -3947,10 +3947,10 @@
         <v>1</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K92" t="n">
         <v>1</v>
@@ -3961,19 +3961,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>44655</v>
+        <v>44585</v>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93" t="n">
         <v>1</v>
@@ -3982,13 +3982,13 @@
         <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K93" t="n">
         <v>1</v>
@@ -3999,22 +3999,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>44662</v>
+        <v>44592</v>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94" t="n">
         <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4029,15 +4029,15 @@
         <v>1</v>
       </c>
       <c r="K94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>44669</v>
+        <v>44599</v>
       </c>
       <c r="B95" t="n">
         <v>1</v>
@@ -4046,22 +4046,22 @@
         <v>1</v>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95" t="n">
         <v>1</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
         <v>1</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
         <v>1</v>
@@ -4075,7 +4075,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>44676</v>
+        <v>44606</v>
       </c>
       <c r="B96" t="n">
         <v>1</v>
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="E96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
         <v>1</v>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
         <v>1</v>
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K96" t="n">
         <v>1</v>
@@ -4113,7 +4113,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>44683</v>
+        <v>44610</v>
       </c>
       <c r="B97" t="n">
         <v>1</v>
@@ -4137,10 +4137,10 @@
         <v>1</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K97" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44690</v>
+        <v>44620</v>
       </c>
       <c r="B98" t="n">
         <v>1</v>
@@ -4181,7 +4181,7 @@
         <v>1</v>
       </c>
       <c r="K98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L98" t="n">
         <v>1</v>
@@ -4189,7 +4189,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44697</v>
+        <v>44627</v>
       </c>
       <c r="B99" t="n">
         <v>1</v>
@@ -4219,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="K99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L99" t="n">
         <v>1</v>
@@ -4227,7 +4227,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44704</v>
+        <v>44634</v>
       </c>
       <c r="B100" t="n">
         <v>1</v>
@@ -4251,21 +4251,21 @@
         <v>1</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="n">
         <v>1</v>
       </c>
       <c r="K100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44708</v>
+        <v>44641</v>
       </c>
       <c r="B101" t="n">
         <v>1</v>
@@ -4292,10 +4292,10 @@
         <v>1</v>
       </c>
       <c r="J101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L101" t="n">
         <v>1</v>
@@ -4303,7 +4303,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>44718</v>
+        <v>44648</v>
       </c>
       <c r="B102" t="n">
         <v>1</v>
@@ -4327,10 +4327,10 @@
         <v>1</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K102" t="n">
         <v>1</v>
@@ -4341,7 +4341,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>44725</v>
+        <v>44655</v>
       </c>
       <c r="B103" t="n">
         <v>1</v>
@@ -4362,13 +4362,13 @@
         <v>1</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>1</v>
       </c>
       <c r="J103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K103" t="n">
         <v>1</v>
@@ -4379,7 +4379,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44732</v>
+        <v>44662</v>
       </c>
       <c r="B104" t="n">
         <v>1</v>
@@ -4394,7 +4394,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4412,12 +4412,12 @@
         <v>1</v>
       </c>
       <c r="L104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44739</v>
+        <v>44669</v>
       </c>
       <c r="B105" t="n">
         <v>1</v>
@@ -4426,7 +4426,7 @@
         <v>1</v>
       </c>
       <c r="D105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E105" t="n">
         <v>1</v>
@@ -4435,7 +4435,7 @@
         <v>1</v>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105" t="n">
         <v>1</v>
@@ -4455,7 +4455,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44743</v>
+        <v>44676</v>
       </c>
       <c r="B106" t="n">
         <v>1</v>
@@ -4467,19 +4467,19 @@
         <v>1</v>
       </c>
       <c r="E106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106" t="n">
         <v>1</v>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H106" t="n">
         <v>1</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="n">
         <v>1</v>
@@ -4488,12 +4488,12 @@
         <v>1</v>
       </c>
       <c r="L106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44753</v>
+        <v>44683</v>
       </c>
       <c r="B107" t="n">
         <v>1</v>
@@ -4523,7 +4523,7 @@
         <v>1</v>
       </c>
       <c r="K107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L107" t="n">
         <v>1</v>
@@ -4531,7 +4531,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44760</v>
+        <v>44690</v>
       </c>
       <c r="B108" t="n">
         <v>1</v>
@@ -4543,7 +4543,7 @@
         <v>1</v>
       </c>
       <c r="E108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108" t="n">
         <v>1</v>
@@ -4558,7 +4558,7 @@
         <v>1</v>
       </c>
       <c r="J108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K108" t="n">
         <v>0</v>
@@ -4569,7 +4569,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>44767</v>
+        <v>44697</v>
       </c>
       <c r="B109" t="n">
         <v>1</v>
@@ -4596,7 +4596,7 @@
         <v>1</v>
       </c>
       <c r="J109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K109" t="n">
         <v>0</v>
@@ -4607,7 +4607,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44774</v>
+        <v>44704</v>
       </c>
       <c r="B110" t="n">
         <v>1</v>
@@ -4631,7 +4631,7 @@
         <v>1</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="n">
         <v>1</v>
@@ -4640,18 +4640,18 @@
         <v>0</v>
       </c>
       <c r="L110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44781</v>
+        <v>44708</v>
       </c>
       <c r="B111" t="n">
         <v>1</v>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D111" t="n">
         <v>1</v>
@@ -4683,7 +4683,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44788</v>
+        <v>44718</v>
       </c>
       <c r="B112" t="n">
         <v>1</v>
@@ -4701,7 +4701,7 @@
         <v>1</v>
       </c>
       <c r="G112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H112" t="n">
         <v>1</v>
@@ -4721,7 +4721,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44795</v>
+        <v>44725</v>
       </c>
       <c r="B113" t="n">
         <v>1</v>
@@ -4759,10 +4759,10 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>44802</v>
+        <v>44732</v>
       </c>
       <c r="B114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C114" t="n">
         <v>1</v>
@@ -4774,10 +4774,10 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H114" t="n">
         <v>1</v>
@@ -4792,12 +4792,12 @@
         <v>1</v>
       </c>
       <c r="L114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>44806</v>
+        <v>44739</v>
       </c>
       <c r="B115" t="n">
         <v>1</v>
@@ -4821,7 +4821,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="n">
         <v>1</v>
@@ -4835,7 +4835,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>44816</v>
+        <v>44743</v>
       </c>
       <c r="B116" t="n">
         <v>1</v>
@@ -4847,7 +4847,7 @@
         <v>1</v>
       </c>
       <c r="E116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116" t="n">
         <v>1</v>
@@ -4859,7 +4859,7 @@
         <v>1</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="n">
         <v>1</v>
@@ -4868,12 +4868,12 @@
         <v>1</v>
       </c>
       <c r="L116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44823</v>
+        <v>44753</v>
       </c>
       <c r="B117" t="n">
         <v>1</v>
@@ -4885,7 +4885,7 @@
         <v>1</v>
       </c>
       <c r="E117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F117" t="n">
         <v>1</v>
@@ -4900,7 +4900,7 @@
         <v>1</v>
       </c>
       <c r="J117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K117" t="n">
         <v>1</v>
@@ -4911,7 +4911,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44830</v>
+        <v>44760</v>
       </c>
       <c r="B118" t="n">
         <v>1</v>
@@ -4938,10 +4938,10 @@
         <v>1</v>
       </c>
       <c r="J118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L118" t="n">
         <v>1</v>
@@ -4949,7 +4949,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>44837</v>
+        <v>44767</v>
       </c>
       <c r="B119" t="n">
         <v>1</v>
@@ -4973,7 +4973,7 @@
         <v>1</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="n">
         <v>1</v>
@@ -4987,7 +4987,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44844</v>
+        <v>44774</v>
       </c>
       <c r="B120" t="n">
         <v>1</v>
@@ -5002,7 +5002,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5011,7 +5011,7 @@
         <v>1</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="n">
         <v>1</v>
@@ -5025,13 +5025,13 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44851</v>
+        <v>44781</v>
       </c>
       <c r="B121" t="n">
         <v>1</v>
       </c>
       <c r="C121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D121" t="n">
         <v>1</v>
@@ -5063,7 +5063,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44858</v>
+        <v>44788</v>
       </c>
       <c r="B122" t="n">
         <v>1</v>
@@ -5081,7 +5081,7 @@
         <v>1</v>
       </c>
       <c r="G122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H122" t="n">
         <v>1</v>
@@ -5101,7 +5101,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44865</v>
+        <v>44795</v>
       </c>
       <c r="B123" t="n">
         <v>1</v>
@@ -5139,10 +5139,10 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44872</v>
+        <v>44802</v>
       </c>
       <c r="B124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C124" t="n">
         <v>1</v>
@@ -5154,10 +5154,10 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H124" t="n">
         <v>1</v>
@@ -5177,7 +5177,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44879</v>
+        <v>44806</v>
       </c>
       <c r="B125" t="n">
         <v>1</v>
@@ -5201,7 +5201,7 @@
         <v>1</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="n">
         <v>1</v>
@@ -5215,7 +5215,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44886</v>
+        <v>44816</v>
       </c>
       <c r="B126" t="n">
         <v>1</v>
@@ -5253,7 +5253,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>44893</v>
+        <v>44823</v>
       </c>
       <c r="B127" t="n">
         <v>1</v>
@@ -5265,16 +5265,16 @@
         <v>1</v>
       </c>
       <c r="E127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>1</v>
@@ -5291,7 +5291,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44900</v>
+        <v>44830</v>
       </c>
       <c r="B128" t="n">
         <v>1</v>
@@ -5303,7 +5303,7 @@
         <v>1</v>
       </c>
       <c r="E128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F128" t="n">
         <v>1</v>
@@ -5318,7 +5318,7 @@
         <v>1</v>
       </c>
       <c r="J128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K128" t="n">
         <v>1</v>
@@ -5329,7 +5329,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44907</v>
+        <v>44837</v>
       </c>
       <c r="B129" t="n">
         <v>1</v>
@@ -5353,21 +5353,21 @@
         <v>1</v>
       </c>
       <c r="I129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="n">
         <v>1</v>
       </c>
       <c r="K129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44914</v>
+        <v>44844</v>
       </c>
       <c r="B130" t="n">
         <v>1</v>
@@ -5379,10 +5379,10 @@
         <v>1</v>
       </c>
       <c r="E130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5391,7 +5391,7 @@
         <v>1</v>
       </c>
       <c r="I130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" t="n">
         <v>1</v>
@@ -5405,7 +5405,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44918</v>
+        <v>44851</v>
       </c>
       <c r="B131" t="n">
         <v>1</v>
@@ -5414,7 +5414,7 @@
         <v>1</v>
       </c>
       <c r="D131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E131" t="n">
         <v>1</v>
@@ -5443,7 +5443,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44925</v>
+        <v>44858</v>
       </c>
       <c r="B132" t="n">
         <v>1</v>
@@ -5481,7 +5481,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44935</v>
+        <v>44865</v>
       </c>
       <c r="B133" t="n">
         <v>1</v>
@@ -5496,7 +5496,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5519,7 +5519,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44939</v>
+        <v>44872</v>
       </c>
       <c r="B134" t="n">
         <v>1</v>
@@ -5534,7 +5534,7 @@
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5557,10 +5557,10 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44949</v>
+        <v>44879</v>
       </c>
       <c r="B135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C135" t="n">
         <v>1</v>
@@ -5575,7 +5575,7 @@
         <v>1</v>
       </c>
       <c r="G135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H135" t="n">
         <v>1</v>
@@ -5595,7 +5595,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44956</v>
+        <v>44886</v>
       </c>
       <c r="B136" t="n">
         <v>1</v>
@@ -5633,7 +5633,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44963</v>
+        <v>44893</v>
       </c>
       <c r="B137" t="n">
         <v>1</v>
@@ -5642,13 +5642,13 @@
         <v>1</v>
       </c>
       <c r="D137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5660,7 +5660,7 @@
         <v>1</v>
       </c>
       <c r="J137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K137" t="n">
         <v>1</v>
@@ -5671,7 +5671,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44970</v>
+        <v>44900</v>
       </c>
       <c r="B138" t="n">
         <v>1</v>
@@ -5698,18 +5698,18 @@
         <v>1</v>
       </c>
       <c r="J138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K138" t="n">
         <v>1</v>
       </c>
       <c r="L138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44974</v>
+        <v>44907</v>
       </c>
       <c r="B139" t="n">
         <v>1</v>
@@ -5718,16 +5718,16 @@
         <v>1</v>
       </c>
       <c r="D139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F139" t="n">
         <v>1</v>
       </c>
       <c r="G139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H139" t="n">
         <v>1</v>
@@ -5742,12 +5742,12 @@
         <v>1</v>
       </c>
       <c r="L139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44984</v>
+        <v>44914</v>
       </c>
       <c r="B140" t="n">
         <v>1</v>
@@ -5759,7 +5759,7 @@
         <v>1</v>
       </c>
       <c r="E140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F140" t="n">
         <v>1</v>
@@ -5777,7 +5777,7 @@
         <v>1</v>
       </c>
       <c r="K140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L140" t="n">
         <v>1</v>
@@ -5785,7 +5785,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44991</v>
+        <v>44918</v>
       </c>
       <c r="B141" t="n">
         <v>1</v>
@@ -5794,7 +5794,7 @@
         <v>1</v>
       </c>
       <c r="D141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E141" t="n">
         <v>1</v>
@@ -5823,7 +5823,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44998</v>
+        <v>44925</v>
       </c>
       <c r="B142" t="n">
         <v>1</v>
@@ -5861,7 +5861,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>45005</v>
+        <v>44935</v>
       </c>
       <c r="B143" t="n">
         <v>1</v>
@@ -5873,10 +5873,10 @@
         <v>1</v>
       </c>
       <c r="E143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5899,7 +5899,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>45012</v>
+        <v>44939</v>
       </c>
       <c r="B144" t="n">
         <v>1</v>
@@ -5914,10 +5914,10 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H144" t="n">
         <v>1</v>
@@ -5937,10 +5937,10 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>45019</v>
+        <v>44949</v>
       </c>
       <c r="B145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C145" t="n">
         <v>1</v>
@@ -5955,7 +5955,7 @@
         <v>1</v>
       </c>
       <c r="G145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H145" t="n">
         <v>1</v>
@@ -5975,13 +5975,13 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>45026</v>
+        <v>44956</v>
       </c>
       <c r="B146" t="n">
         <v>1</v>
       </c>
       <c r="C146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D146" t="n">
         <v>1</v>
@@ -6013,19 +6013,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>45033</v>
+        <v>44963</v>
       </c>
       <c r="B147" t="n">
         <v>1</v>
       </c>
       <c r="C147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F147" t="n">
         <v>1</v>
@@ -6051,7 +6051,7 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>45040</v>
+        <v>44970</v>
       </c>
       <c r="B148" t="n">
         <v>1</v>
@@ -6081,15 +6081,15 @@
         <v>1</v>
       </c>
       <c r="K148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>45047</v>
+        <v>44974</v>
       </c>
       <c r="B149" t="n">
         <v>1</v>
@@ -6098,16 +6098,16 @@
         <v>1</v>
       </c>
       <c r="D149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F149" t="n">
         <v>1</v>
       </c>
       <c r="G149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H149" t="n">
         <v>1</v>
@@ -6116,7 +6116,7 @@
         <v>1</v>
       </c>
       <c r="J149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K149" t="n">
         <v>1</v>
@@ -6127,10 +6127,10 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>45054</v>
+        <v>44984</v>
       </c>
       <c r="B150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C150" t="n">
         <v>1</v>
@@ -6148,10 +6148,10 @@
         <v>1</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150" t="n">
         <v>1</v>
@@ -6165,7 +6165,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>45061</v>
+        <v>44991</v>
       </c>
       <c r="B151" t="n">
         <v>1</v>
@@ -6203,7 +6203,7 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>45068</v>
+        <v>44998</v>
       </c>
       <c r="B152" t="n">
         <v>1</v>
@@ -6241,7 +6241,7 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>45072</v>
+        <v>45005</v>
       </c>
       <c r="B153" t="n">
         <v>1</v>
@@ -6250,10 +6250,10 @@
         <v>1</v>
       </c>
       <c r="D153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F153" t="n">
         <v>1</v>
@@ -6279,25 +6279,25 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>45082</v>
+        <v>45012</v>
       </c>
       <c r="B154" t="n">
         <v>1</v>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F154" t="n">
         <v>1</v>
       </c>
       <c r="G154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H154" t="n">
         <v>1</v>
@@ -6309,7 +6309,7 @@
         <v>1</v>
       </c>
       <c r="K154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L154" t="n">
         <v>1</v>
@@ -6317,7 +6317,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>45089</v>
+        <v>45019</v>
       </c>
       <c r="B155" t="n">
         <v>1</v>
@@ -6329,13 +6329,13 @@
         <v>1</v>
       </c>
       <c r="E155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155" t="n">
         <v>1</v>
       </c>
       <c r="G155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H155" t="n">
         <v>1</v>
@@ -6347,7 +6347,7 @@
         <v>1</v>
       </c>
       <c r="K155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L155" t="n">
         <v>1</v>
@@ -6355,31 +6355,31 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>45096</v>
+        <v>45026</v>
       </c>
       <c r="B156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F156" t="n">
         <v>1</v>
       </c>
       <c r="G156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H156" t="n">
         <v>1</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156" t="n">
         <v>1</v>
@@ -6393,13 +6393,13 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>45103</v>
+        <v>45033</v>
       </c>
       <c r="B157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D157" t="n">
         <v>1</v>
@@ -6414,16 +6414,16 @@
         <v>1</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L157" t="n">
         <v>1</v>
@@ -6431,7 +6431,7 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>45110</v>
+        <v>45040</v>
       </c>
       <c r="B158" t="n">
         <v>1</v>
@@ -6455,13 +6455,13 @@
         <v>1</v>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158" t="n">
         <v>1</v>
       </c>
       <c r="K158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L158" t="n">
         <v>1</v>
@@ -6469,7 +6469,7 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>45117</v>
+        <v>45047</v>
       </c>
       <c r="B159" t="n">
         <v>1</v>
@@ -6484,7 +6484,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6496,7 +6496,7 @@
         <v>1</v>
       </c>
       <c r="J159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K159" t="n">
         <v>1</v>
@@ -6507,10 +6507,10 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>45124</v>
+        <v>45054</v>
       </c>
       <c r="B160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C160" t="n">
         <v>1</v>
@@ -6525,13 +6525,13 @@
         <v>1</v>
       </c>
       <c r="G160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J160" t="n">
         <v>1</v>
@@ -6545,7 +6545,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>45131</v>
+        <v>45061</v>
       </c>
       <c r="B161" t="n">
         <v>1</v>
@@ -6583,7 +6583,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>45138</v>
+        <v>45068</v>
       </c>
       <c r="B162" t="n">
         <v>1</v>
@@ -6610,7 +6610,7 @@
         <v>1</v>
       </c>
       <c r="J162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K162" t="n">
         <v>1</v>
@@ -6621,7 +6621,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>45145</v>
+        <v>45072</v>
       </c>
       <c r="B163" t="n">
         <v>1</v>
@@ -6630,10 +6630,10 @@
         <v>1</v>
       </c>
       <c r="D163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F163" t="n">
         <v>1</v>
@@ -6642,13 +6642,13 @@
         <v>1</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
         <v>1</v>
       </c>
       <c r="J163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K163" t="n">
         <v>1</v>
@@ -6659,19 +6659,19 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>45152</v>
+        <v>45082</v>
       </c>
       <c r="B164" t="n">
         <v>1</v>
       </c>
       <c r="C164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D164" t="n">
         <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F164" t="n">
         <v>1</v>
@@ -6680,16 +6680,16 @@
         <v>1</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L164" t="n">
         <v>1</v>
@@ -6697,25 +6697,25 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>45159</v>
+        <v>45089</v>
       </c>
       <c r="B165" t="n">
         <v>1</v>
       </c>
       <c r="C165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D165" t="n">
         <v>1</v>
       </c>
       <c r="E165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H165" t="n">
         <v>1</v>
@@ -6724,27 +6724,27 @@
         <v>1</v>
       </c>
       <c r="J165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>45166</v>
+        <v>45096</v>
       </c>
       <c r="B166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C166" t="n">
         <v>1</v>
       </c>
       <c r="D166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E166" t="n">
         <v>0</v>
@@ -6753,13 +6753,13 @@
         <v>1</v>
       </c>
       <c r="G166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H166" t="n">
         <v>1</v>
       </c>
       <c r="I166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J166" t="n">
         <v>1</v>
@@ -6773,10 +6773,10 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>45170</v>
+        <v>45103</v>
       </c>
       <c r="B167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C167" t="n">
         <v>1</v>
@@ -6785,7 +6785,7 @@
         <v>1</v>
       </c>
       <c r="E167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F167" t="n">
         <v>1</v>
@@ -6797,13 +6797,13 @@
         <v>1</v>
       </c>
       <c r="I167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J167" t="n">
         <v>0</v>
       </c>
       <c r="K167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L167" t="n">
         <v>1</v>
@@ -6811,7 +6811,7 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>45180</v>
+        <v>45110</v>
       </c>
       <c r="B168" t="n">
         <v>1</v>
@@ -6823,7 +6823,7 @@
         <v>1</v>
       </c>
       <c r="E168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F168" t="n">
         <v>1</v>
@@ -6835,10 +6835,10 @@
         <v>1</v>
       </c>
       <c r="I168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K168" t="n">
         <v>1</v>
@@ -6849,10 +6849,10 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>45187</v>
+        <v>45117</v>
       </c>
       <c r="B169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C169" t="n">
         <v>1</v>
@@ -6864,7 +6864,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6879,7 +6879,7 @@
         <v>1</v>
       </c>
       <c r="K169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L169" t="n">
         <v>1</v>
@@ -6887,7 +6887,7 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>45194</v>
+        <v>45124</v>
       </c>
       <c r="B170" t="n">
         <v>1</v>
@@ -6905,7 +6905,7 @@
         <v>1</v>
       </c>
       <c r="G170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H170" t="n">
         <v>1</v>
@@ -6925,7 +6925,7 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>45201</v>
+        <v>45131</v>
       </c>
       <c r="B171" t="n">
         <v>1</v>
@@ -6963,7 +6963,7 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>45208</v>
+        <v>45138</v>
       </c>
       <c r="B172" t="n">
         <v>1</v>
@@ -6975,7 +6975,7 @@
         <v>1</v>
       </c>
       <c r="E172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F172" t="n">
         <v>1</v>
@@ -6990,27 +6990,27 @@
         <v>1</v>
       </c>
       <c r="J172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K172" t="n">
         <v>1</v>
       </c>
       <c r="L172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>45215</v>
+        <v>45145</v>
       </c>
       <c r="B173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C173" t="n">
         <v>1</v>
       </c>
       <c r="D173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E173" t="n">
         <v>0</v>
@@ -7028,10 +7028,10 @@
         <v>1</v>
       </c>
       <c r="J173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L173" t="n">
         <v>1</v>
@@ -7039,19 +7039,19 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>45222</v>
+        <v>45152</v>
       </c>
       <c r="B174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D174" t="n">
         <v>0</v>
       </c>
       <c r="E174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F174" t="n">
         <v>1</v>
@@ -7060,16 +7060,16 @@
         <v>1</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L174" t="n">
         <v>1</v>
@@ -7077,10 +7077,10 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>45229</v>
+        <v>45159</v>
       </c>
       <c r="B175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -7089,33 +7089,33 @@
         <v>1</v>
       </c>
       <c r="E175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>45236</v>
+        <v>45166</v>
       </c>
       <c r="B176" t="n">
         <v>1</v>
@@ -7127,7 +7127,7 @@
         <v>1</v>
       </c>
       <c r="E176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F176" t="n">
         <v>1</v>
@@ -7145,7 +7145,7 @@
         <v>1</v>
       </c>
       <c r="K176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L176" t="n">
         <v>1</v>
@@ -7153,7 +7153,7 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>45243</v>
+        <v>45170</v>
       </c>
       <c r="B177" t="n">
         <v>1</v>
@@ -7165,7 +7165,7 @@
         <v>1</v>
       </c>
       <c r="E177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F177" t="n">
         <v>1</v>
@@ -7180,18 +7180,18 @@
         <v>1</v>
       </c>
       <c r="J177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K177" t="n">
         <v>1</v>
       </c>
       <c r="L177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>45250</v>
+        <v>45180</v>
       </c>
       <c r="B178" t="n">
         <v>1</v>
@@ -7203,7 +7203,7 @@
         <v>1</v>
       </c>
       <c r="E178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F178" t="n">
         <v>1</v>
@@ -7218,7 +7218,7 @@
         <v>1</v>
       </c>
       <c r="J178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K178" t="n">
         <v>1</v>
@@ -7229,10 +7229,10 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>45257</v>
+        <v>45187</v>
       </c>
       <c r="B179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C179" t="n">
         <v>1</v>
@@ -7259,7 +7259,7 @@
         <v>1</v>
       </c>
       <c r="K179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L179" t="n">
         <v>1</v>
@@ -7267,7 +7267,7 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>45264</v>
+        <v>45194</v>
       </c>
       <c r="B180" t="n">
         <v>1</v>
@@ -7294,18 +7294,18 @@
         <v>1</v>
       </c>
       <c r="J180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K180" t="n">
         <v>1</v>
       </c>
       <c r="L180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>45271</v>
+        <v>45201</v>
       </c>
       <c r="B181" t="n">
         <v>1</v>
@@ -7332,18 +7332,18 @@
         <v>1</v>
       </c>
       <c r="J181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K181" t="n">
         <v>1</v>
       </c>
       <c r="L181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45278</v>
+        <v>45208</v>
       </c>
       <c r="B182" t="n">
         <v>1</v>
@@ -7355,7 +7355,7 @@
         <v>1</v>
       </c>
       <c r="E182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F182" t="n">
         <v>1</v>
@@ -7370,7 +7370,7 @@
         <v>1</v>
       </c>
       <c r="J182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K182" t="n">
         <v>1</v>
@@ -7381,37 +7381,37 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>45282</v>
+        <v>45215</v>
       </c>
       <c r="B183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C183" t="n">
         <v>1</v>
       </c>
       <c r="D183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E183" t="n">
         <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="n">
         <v>1</v>
       </c>
       <c r="J183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L183" t="n">
         <v>1</v>
@@ -7419,19 +7419,19 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>45289</v>
+        <v>45222</v>
       </c>
       <c r="B184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F184" t="n">
         <v>1</v>
@@ -7449,7 +7449,7 @@
         <v>1</v>
       </c>
       <c r="K184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L184" t="n">
         <v>1</v>
@@ -7457,37 +7457,37 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>45299</v>
+        <v>45229</v>
       </c>
       <c r="B185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D185" t="n">
         <v>1</v>
       </c>
       <c r="E185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F185" t="n">
         <v>1</v>
       </c>
       <c r="G185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J185" t="n">
         <v>1</v>
       </c>
       <c r="K185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L185" t="n">
         <v>1</v>
@@ -7495,7 +7495,7 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>45303</v>
+        <v>45236</v>
       </c>
       <c r="B186" t="n">
         <v>1</v>
@@ -7525,7 +7525,7 @@
         <v>1</v>
       </c>
       <c r="K186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L186" t="n">
         <v>1</v>
@@ -7533,7 +7533,7 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>45313</v>
+        <v>45243</v>
       </c>
       <c r="B187" t="n">
         <v>1</v>
@@ -7557,21 +7557,21 @@
         <v>1</v>
       </c>
       <c r="I187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J187" t="n">
         <v>1</v>
       </c>
       <c r="K187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>45320</v>
+        <v>45250</v>
       </c>
       <c r="B188" t="n">
         <v>1</v>
@@ -7609,7 +7609,7 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>45327</v>
+        <v>45257</v>
       </c>
       <c r="B189" t="n">
         <v>1</v>
@@ -7647,7 +7647,7 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>45334</v>
+        <v>45264</v>
       </c>
       <c r="B190" t="n">
         <v>1</v>
@@ -7674,7 +7674,7 @@
         <v>1</v>
       </c>
       <c r="J190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K190" t="n">
         <v>1</v>
@@ -7685,19 +7685,19 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>45338</v>
+        <v>45271</v>
       </c>
       <c r="B191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D191" t="n">
         <v>1</v>
       </c>
       <c r="E191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F191" t="n">
         <v>1</v>
@@ -7712,10 +7712,10 @@
         <v>1</v>
       </c>
       <c r="J191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L191" t="n">
         <v>0</v>
@@ -7723,7 +7723,7 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>45348</v>
+        <v>45278</v>
       </c>
       <c r="B192" t="n">
         <v>1</v>
@@ -7753,15 +7753,15 @@
         <v>0</v>
       </c>
       <c r="K192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>45355</v>
+        <v>45282</v>
       </c>
       <c r="B193" t="n">
         <v>1</v>
@@ -7773,7 +7773,7 @@
         <v>1</v>
       </c>
       <c r="E193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F193" t="n">
         <v>0</v>
@@ -7788,7 +7788,7 @@
         <v>1</v>
       </c>
       <c r="J193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K193" t="n">
         <v>1</v>
@@ -7799,7 +7799,7 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>45362</v>
+        <v>45289</v>
       </c>
       <c r="B194" t="n">
         <v>1</v>
@@ -7811,19 +7811,19 @@
         <v>1</v>
       </c>
       <c r="E194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J194" t="n">
         <v>1</v>
@@ -7837,7 +7837,7 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>45369</v>
+        <v>45299</v>
       </c>
       <c r="B195" t="n">
         <v>1</v>
@@ -7849,7 +7849,7 @@
         <v>1</v>
       </c>
       <c r="E195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F195" t="n">
         <v>1</v>
@@ -7858,7 +7858,7 @@
         <v>1</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I195" t="n">
         <v>1</v>
@@ -7867,7 +7867,7 @@
         <v>1</v>
       </c>
       <c r="K195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L195" t="n">
         <v>1</v>
@@ -7875,7 +7875,7 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>45376</v>
+        <v>45303</v>
       </c>
       <c r="B196" t="n">
         <v>1</v>
@@ -7887,7 +7887,7 @@
         <v>1</v>
       </c>
       <c r="E196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F196" t="n">
         <v>1</v>
@@ -7896,7 +7896,7 @@
         <v>1</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I196" t="n">
         <v>1</v>
@@ -7905,15 +7905,15 @@
         <v>1</v>
       </c>
       <c r="K196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>45383</v>
+        <v>45313</v>
       </c>
       <c r="B197" t="n">
         <v>1</v>
@@ -7934,24 +7934,24 @@
         <v>1</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J197" t="n">
         <v>1</v>
       </c>
       <c r="K197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>45390</v>
+        <v>45320</v>
       </c>
       <c r="B198" t="n">
         <v>1</v>
@@ -7969,7 +7969,7 @@
         <v>1</v>
       </c>
       <c r="G198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H198" t="n">
         <v>1</v>
@@ -7981,15 +7981,15 @@
         <v>1</v>
       </c>
       <c r="K198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>45397</v>
+        <v>45327</v>
       </c>
       <c r="B199" t="n">
         <v>1</v>
@@ -7998,7 +7998,7 @@
         <v>1</v>
       </c>
       <c r="D199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E199" t="n">
         <v>1</v>
@@ -8016,18 +8016,18 @@
         <v>1</v>
       </c>
       <c r="J199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K199" t="n">
         <v>1</v>
       </c>
       <c r="L199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>45404</v>
+        <v>45334</v>
       </c>
       <c r="B200" t="n">
         <v>1</v>
@@ -8039,7 +8039,7 @@
         <v>1</v>
       </c>
       <c r="E200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F200" t="n">
         <v>1</v>
@@ -8060,15 +8060,15 @@
         <v>1</v>
       </c>
       <c r="L200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>45411</v>
+        <v>45338</v>
       </c>
       <c r="B201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -8092,18 +8092,18 @@
         <v>1</v>
       </c>
       <c r="J201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>45418</v>
+        <v>45348</v>
       </c>
       <c r="B202" t="n">
         <v>1</v>
@@ -8112,10 +8112,10 @@
         <v>1</v>
       </c>
       <c r="D202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F202" t="n">
         <v>1</v>
@@ -8127,13 +8127,13 @@
         <v>1</v>
       </c>
       <c r="I202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J202" t="n">
         <v>0</v>
       </c>
       <c r="K202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L202" t="n">
         <v>1</v>
@@ -8141,31 +8141,31 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>45425</v>
+        <v>45355</v>
       </c>
       <c r="B203" t="n">
         <v>1</v>
       </c>
       <c r="C203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H203" t="n">
         <v>1</v>
       </c>
       <c r="I203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J203" t="n">
         <v>1</v>
@@ -8179,13 +8179,13 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>45432</v>
+        <v>45362</v>
       </c>
       <c r="B204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D204" t="n">
         <v>1</v>
@@ -8206,7 +8206,7 @@
         <v>0</v>
       </c>
       <c r="J204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K204" t="n">
         <v>1</v>
@@ -8217,7 +8217,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>45436</v>
+        <v>45369</v>
       </c>
       <c r="B205" t="n">
         <v>1</v>
@@ -8229,7 +8229,7 @@
         <v>1</v>
       </c>
       <c r="E205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F205" t="n">
         <v>1</v>
@@ -8238,7 +8238,7 @@
         <v>1</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="n">
         <v>1</v>
@@ -8247,7 +8247,7 @@
         <v>1</v>
       </c>
       <c r="K205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L205" t="n">
         <v>1</v>
@@ -8255,7 +8255,7 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>45446</v>
+        <v>45376</v>
       </c>
       <c r="B206" t="n">
         <v>1</v>
@@ -8267,7 +8267,7 @@
         <v>1</v>
       </c>
       <c r="E206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F206" t="n">
         <v>1</v>
@@ -8276,7 +8276,7 @@
         <v>1</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="n">
         <v>1</v>
@@ -8285,7 +8285,7 @@
         <v>1</v>
       </c>
       <c r="K206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L206" t="n">
         <v>0</v>
@@ -8293,7 +8293,7 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>45453</v>
+        <v>45383</v>
       </c>
       <c r="B207" t="n">
         <v>1</v>
@@ -8331,10 +8331,10 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>45460</v>
+        <v>45390</v>
       </c>
       <c r="B208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C208" t="n">
         <v>1</v>
@@ -8358,18 +8358,18 @@
         <v>1</v>
       </c>
       <c r="J208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>45467</v>
+        <v>45397</v>
       </c>
       <c r="B209" t="n">
         <v>1</v>
@@ -8399,15 +8399,15 @@
         <v>0</v>
       </c>
       <c r="K209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>45474</v>
+        <v>45404</v>
       </c>
       <c r="B210" t="n">
         <v>1</v>
@@ -8445,13 +8445,13 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>45481</v>
+        <v>45411</v>
       </c>
       <c r="B211" t="n">
         <v>1</v>
       </c>
       <c r="C211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D211" t="n">
         <v>1</v>
@@ -8472,18 +8472,18 @@
         <v>1</v>
       </c>
       <c r="J211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>45488</v>
+        <v>45418</v>
       </c>
       <c r="B212" t="n">
         <v>1</v>
@@ -8501,7 +8501,7 @@
         <v>1</v>
       </c>
       <c r="G212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H212" t="n">
         <v>1</v>
@@ -8510,10 +8510,10 @@
         <v>0</v>
       </c>
       <c r="J212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L212" t="n">
         <v>1</v>
@@ -8521,16 +8521,16 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>45495</v>
+        <v>45425</v>
       </c>
       <c r="B213" t="n">
         <v>1</v>
       </c>
       <c r="C213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E213" t="n">
         <v>0</v>
@@ -8542,13 +8542,13 @@
         <v>0</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K213" t="n">
         <v>1</v>
@@ -8559,28 +8559,28 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>45502</v>
+        <v>45432</v>
       </c>
       <c r="B214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D214" t="n">
         <v>1</v>
       </c>
       <c r="E214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -8597,7 +8597,7 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>45509</v>
+        <v>45436</v>
       </c>
       <c r="B215" t="n">
         <v>1</v>
@@ -8609,7 +8609,7 @@
         <v>1</v>
       </c>
       <c r="E215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F215" t="n">
         <v>1</v>
@@ -8630,12 +8630,12 @@
         <v>1</v>
       </c>
       <c r="L215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>45516</v>
+        <v>45446</v>
       </c>
       <c r="B216" t="n">
         <v>1</v>
@@ -8647,10 +8647,10 @@
         <v>1</v>
       </c>
       <c r="E216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8659,21 +8659,21 @@
         <v>1</v>
       </c>
       <c r="I216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J216" t="n">
         <v>1</v>
       </c>
       <c r="K216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>45523</v>
+        <v>45453</v>
       </c>
       <c r="B217" t="n">
         <v>1</v>
@@ -8682,19 +8682,19 @@
         <v>1</v>
       </c>
       <c r="D217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="n">
         <v>1</v>
@@ -8706,30 +8706,30 @@
         <v>1</v>
       </c>
       <c r="L217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>45530</v>
+        <v>45460</v>
       </c>
       <c r="B218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C218" t="n">
         <v>1</v>
       </c>
       <c r="D218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F218" t="n">
         <v>1</v>
       </c>
       <c r="G218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H218" t="n">
         <v>1</v>
@@ -8738,50 +8738,430 @@
         <v>1</v>
       </c>
       <c r="J218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K218" t="n">
         <v>1</v>
       </c>
       <c r="L218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B219" t="n">
+        <v>1</v>
+      </c>
+      <c r="C219" t="n">
+        <v>1</v>
+      </c>
+      <c r="D219" t="n">
+        <v>0</v>
+      </c>
+      <c r="E219" t="n">
+        <v>1</v>
+      </c>
+      <c r="F219" t="n">
+        <v>1</v>
+      </c>
+      <c r="G219" t="n">
+        <v>1</v>
+      </c>
+      <c r="H219" t="n">
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>1</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="n">
+        <v>0</v>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B220" t="n">
+        <v>1</v>
+      </c>
+      <c r="C220" t="n">
+        <v>1</v>
+      </c>
+      <c r="D220" t="n">
+        <v>1</v>
+      </c>
+      <c r="E220" t="n">
+        <v>0</v>
+      </c>
+      <c r="F220" t="n">
+        <v>1</v>
+      </c>
+      <c r="G220" t="n">
+        <v>1</v>
+      </c>
+      <c r="H220" t="n">
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>1</v>
+      </c>
+      <c r="J220" t="n">
+        <v>1</v>
+      </c>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B221" t="n">
+        <v>1</v>
+      </c>
+      <c r="C221" t="n">
+        <v>1</v>
+      </c>
+      <c r="D221" t="n">
+        <v>1</v>
+      </c>
+      <c r="E221" t="n">
+        <v>0</v>
+      </c>
+      <c r="F221" t="n">
+        <v>1</v>
+      </c>
+      <c r="G221" t="n">
+        <v>1</v>
+      </c>
+      <c r="H221" t="n">
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>1</v>
+      </c>
+      <c r="J221" t="n">
+        <v>1</v>
+      </c>
+      <c r="K221" t="n">
+        <v>0</v>
+      </c>
+      <c r="L221" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B222" t="n">
+        <v>1</v>
+      </c>
+      <c r="C222" t="n">
+        <v>1</v>
+      </c>
+      <c r="D222" t="n">
+        <v>0</v>
+      </c>
+      <c r="E222" t="n">
+        <v>0</v>
+      </c>
+      <c r="F222" t="n">
+        <v>1</v>
+      </c>
+      <c r="G222" t="n">
+        <v>0</v>
+      </c>
+      <c r="H222" t="n">
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="n">
+        <v>1</v>
+      </c>
+      <c r="K222" t="n">
+        <v>0</v>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B223" t="n">
+        <v>1</v>
+      </c>
+      <c r="C223" t="n">
+        <v>1</v>
+      </c>
+      <c r="D223" t="n">
+        <v>1</v>
+      </c>
+      <c r="E223" t="n">
+        <v>0</v>
+      </c>
+      <c r="F223" t="n">
+        <v>1</v>
+      </c>
+      <c r="G223" t="n">
+        <v>0</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>1</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B224" t="n">
+        <v>1</v>
+      </c>
+      <c r="C224" t="n">
+        <v>1</v>
+      </c>
+      <c r="D224" t="n">
+        <v>1</v>
+      </c>
+      <c r="E224" t="n">
+        <v>1</v>
+      </c>
+      <c r="F224" t="n">
+        <v>1</v>
+      </c>
+      <c r="G224" t="n">
+        <v>1</v>
+      </c>
+      <c r="H224" t="n">
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B225" t="n">
+        <v>1</v>
+      </c>
+      <c r="C225" t="n">
+        <v>1</v>
+      </c>
+      <c r="D225" t="n">
+        <v>1</v>
+      </c>
+      <c r="E225" t="n">
+        <v>0</v>
+      </c>
+      <c r="F225" t="n">
+        <v>1</v>
+      </c>
+      <c r="G225" t="n">
+        <v>1</v>
+      </c>
+      <c r="H225" t="n">
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>1</v>
+      </c>
+      <c r="J225" t="n">
+        <v>1</v>
+      </c>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B226" t="n">
+        <v>1</v>
+      </c>
+      <c r="C226" t="n">
+        <v>1</v>
+      </c>
+      <c r="D226" t="n">
+        <v>1</v>
+      </c>
+      <c r="E226" t="n">
+        <v>0</v>
+      </c>
+      <c r="F226" t="n">
+        <v>0</v>
+      </c>
+      <c r="G226" t="n">
+        <v>1</v>
+      </c>
+      <c r="H226" t="n">
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="n">
+        <v>1</v>
+      </c>
+      <c r="K226" t="n">
+        <v>0</v>
+      </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B227" t="n">
+        <v>1</v>
+      </c>
+      <c r="C227" t="n">
+        <v>1</v>
+      </c>
+      <c r="D227" t="n">
+        <v>0</v>
+      </c>
+      <c r="E227" t="n">
+        <v>0</v>
+      </c>
+      <c r="F227" t="n">
+        <v>0</v>
+      </c>
+      <c r="G227" t="n">
+        <v>1</v>
+      </c>
+      <c r="H227" t="n">
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>1</v>
+      </c>
+      <c r="J227" t="n">
+        <v>1</v>
+      </c>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B228" t="n">
+        <v>1</v>
+      </c>
+      <c r="C228" t="n">
+        <v>1</v>
+      </c>
+      <c r="D228" t="n">
+        <v>0</v>
+      </c>
+      <c r="E228" t="n">
+        <v>0</v>
+      </c>
+      <c r="F228" t="n">
+        <v>1</v>
+      </c>
+      <c r="G228" t="n">
+        <v>1</v>
+      </c>
+      <c r="H228" t="n">
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>1</v>
+      </c>
+      <c r="J228" t="n">
+        <v>1</v>
+      </c>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
         <v>45534</v>
       </c>
-      <c r="B219" t="n">
-        <v>0</v>
-      </c>
-      <c r="C219" t="n">
-        <v>1</v>
-      </c>
-      <c r="D219" t="n">
-        <v>0</v>
-      </c>
-      <c r="E219" t="n">
-        <v>0</v>
-      </c>
-      <c r="F219" t="n">
-        <v>1</v>
-      </c>
-      <c r="G219" t="n">
-        <v>1</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>1</v>
-      </c>
-      <c r="J219" t="n">
-        <v>0</v>
-      </c>
-      <c r="K219" t="n">
-        <v>1</v>
-      </c>
-      <c r="L219" t="n">
+      <c r="B229" t="n">
+        <v>0</v>
+      </c>
+      <c r="C229" t="n">
+        <v>1</v>
+      </c>
+      <c r="D229" t="n">
+        <v>0</v>
+      </c>
+      <c r="E229" t="n">
+        <v>0</v>
+      </c>
+      <c r="F229" t="n">
+        <v>1</v>
+      </c>
+      <c r="G229" t="n">
+        <v>1</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>1</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="n">
         <v>1</v>
       </c>
     </row>
